--- a/LLM tools results.xlsx
+++ b/LLM tools results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t xml:space="preserve">Prompt Input 1 </t>
   </si>
@@ -254,16 +254,19 @@
 </t>
   </si>
   <si>
-    <t>Set of input test data: 10</t>
-  </si>
-  <si>
-    <t>Set of input test data: 5</t>
-  </si>
-  <si>
-    <t>Set of input test data: 8</t>
-  </si>
-  <si>
-    <t>Set of input test data: 7</t>
+    <t>Unique set of test data: 8 /Total set of test data: 10 =  80% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data:  4 / Total set of test data: 5  = 80% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 5 / Total set of test data: 5  = 100% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 6 / Total set of test data: 8  = 75% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 6 / Total set of test data: 7  = 85.7 %</t>
   </si>
   <si>
     <t>Medium-2</t>
@@ -464,13 +467,16 @@
 </t>
   </si>
   <si>
-    <t>Set of input test data: 18</t>
-  </si>
-  <si>
-    <t>Set of input test data: 0</t>
-  </si>
-  <si>
-    <t>Set of input test data: 12</t>
+    <t>Unique set of test data: 11 / Total set of test data: 18  = 61.1% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 0 / Total set of test data:  0 = infinit coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 4 / Total set of test data: 5  = 80% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 9 /Total set of test data: 12  = 75% coverage</t>
   </si>
   <si>
     <t>High-3</t>
@@ -688,16 +694,11 @@
   </si>
   <si>
     <t xml:space="preserve">Examples:
-   | Description  | Zip Code | Address  | Number | Complement | Neighborhood | City  | State | Country | Latitude | Longitude | isValid
-   | First Address | 13540-470 | Colonel street | 82| 5 | flower garden | Campinas | SP |Brasil | -43.179786469453475 | -22.90024249438694 | valid
-   | ¨ ¨  | 13540-470 |  Colonel street  | 82| | ¨ ¨ | flower garden | Campinas | SP  |Brasil | -43.179786469453475 | -22.90024249438694 | valid
-   # all required fields
-   |  ¨ ¨  | ¨ ¨ | ¨ ¨  | ¨ ¨ | ¨ ¨|  ¨ ¨ | ¨ ¨ | ¨ ¨| ¨ ¨| ¨ ¨| ¨ ¨ | invalid
-   | First Address  | ¨ ¨ | ¨ ¨  | ¨ ¨ | ¨ ¨| 5 | ¨ ¨ | ¨ ¨| ¨ ¨| ¨ ¨| ¨ ¨ | invalid
-   # numeric fields
-   | First Address | 0 |  Colonel street  | 0 |  0  | flower garden | Campinas | SP  |Brasil | 0 | 0 | invalid
-   | First Address | aaa |  Colonel street  | aaa |  aaa  | flower garden | Campinas | SP  |Brasil | aaa | aaa | invalid
-   | First Address | 5453 |  Colonel street  | 82c | a | flower garden | Campinas | SP  |Brasil | -43 | 300  | invalid
+  | Description  | Zip Code | Address  | Number | Complement | Neighborhood | City  | State | Country | Latitude | Longitude | isValid
+  | Endereço teste 01 | 20090-070 |          | 82     |             |        |        |    |      | -43.179786469453475 | -22.90024249438694 |valid
+  |                  |     |          |        |             |        |        |    |      |          |           |invalid
+  | Testando o Local |     |          |        |             |        |        |    |      |          |           |invalid
+  | Endereço11 | 98756 | Rua Lagoa Da Serra | 38c    | c           | Jardim Paulistano | Jardim Paulistano | RJ | Brasil | 0        | 0         |ivalid
 </t>
   </si>
   <si>
@@ -733,18 +734,42 @@
   |"Hospital" |321456 |"Pine St."|22   |"D"       |"Hospital"  |"Towndale"  |"WA"|"USA" |47.6062  |-122.3321|Yes     |</t>
   </si>
   <si>
-    <t>Examples:
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Examples:
   | Description  | Zip Code | Address  | Number | Complement | Neighborhood | City | State | Country  | Latitude  | Longitude | isValid |
   | "Main Office" | "10001"  | "5th Avenue" | 123  | "A"  | "Midtown"  | "New York"| "NY"  | "USA"   | 40.7128   | -74.0060  | true  |
   | "Branch Office" | "94103"  | "Market Street"  | 456    | NULL | "SoMa"  | "San Francisco" | "CA" | "USA"  | 37.7749   | -122.4194 | true  |
   | "European HQ" | "75008"  | "Champs-Élysées" | 789  | "B"  | "8th Arrondissement" | "Paris" | "IDF" | "France" | 48.8566   | 2.3522  | true  |
-  | "Asian HQ" | "100000" | "Wangfujing"  | 101  | NULL  | "Dongcheng"  | "Beijing" | "BJ"  | "China"  | 39.9042   | 116.4074  | true  |
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> | "Asian HQ" | "100000" | "Wangfujing"  | 101  | NULL  | "Dongcheng"  | "Beijing" | "BJ"  | "China"  | 39.9042   | 116.4074  | true  |
   | "No Zip" | " " | "Baker Street"   | 221    | NULL  | "Marylebone" | "London"  | "LDN" | "UK"  | 51.5074   | -0.1278   | false  |
   | "Negative Number" | "90210"  | "Rodeo Drive" | -1 | NULL  | "Beverly Hills" | "Los Angeles" | "CA" | "USA"  | 34.0736   | -118.4004 | false  |
   | "Invalid Latitude"| "50001"  | "Gran Via"  | 305  | NULL  | "Centro"  | "Madrid"  | "MD"  | "Spain"  | 91.0000  | -3.7038   | false  |
   | "Invalid State"  | "10115"  | "Unter den Linden" | 17   | "C"  | "Mitte"  | "Berlin"  | "BER" | "Germany"  | 52.5200   | 13.4050   | false  |
   | "Empty Address"   | "60601"  | " "  | 300   | NULL  | "The Loop"  | "Chicago" | "IL"  | "USA"   | 41.8781   | -87.6298  | false   |
   | "Special Chars"  | "AB@CD"  | "Lake Shore"  | 400   | NULL   | "Gold Coast" | "Chicago" | "IL"  | "USA"  | 41.8781   | -87.6298  | false  |</t>
+    </r>
   </si>
   <si>
     <t>Examples:
@@ -758,10 +783,19 @@
   | Office with Comma       | 78787 | 123 Main St, Suite 100  | 100    | None      | Downtown       | Austin      | TX  | United States of America | 30.2672° | -97.7431° | Valid   |</t>
   </si>
   <si>
-    <t>Set of input test data: 3</t>
-  </si>
-  <si>
-    <t>Set of input test data: 6</t>
+    <t>Unique set of test data: 3 / Total set of test data: 10  = 30% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data:  2 /Total set of test data: 3  = 66.6% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 2 / Total set of test data: 5  = 40 % coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 8 / Total set of test data: 10  = 80% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 4 / Total set of test data: 6 = 66.6% coverage</t>
   </si>
   <si>
     <t>Logic-4</t>
@@ -951,6 +985,18 @@
    | 3             | 1              | -2                 | 2      | Invalid value          | Invalid |</t>
   </si>
   <si>
+    <t>Unique set of test data: 5 / Total set of test data: 7  = 71.4% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 2 / Total set of test data: 5  = 40% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 2 / Total set of test data: 5 = 40% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 2 / Total set of test data: 7  = 28.5% coverage</t>
+  </si>
+  <si>
     <t>Logic-5</t>
   </si>
   <si>
@@ -1086,8 +1132,6 @@
   | p1 | p2 | result |
   | "t^2" | "t^2" | 3 | # (1^2 + 0^2 + 1^2) = 3
   | "t^2 + t + 1" | "t^2 - t + 1" | 3 | # ((-1)^2 + (-1) + 1) + (0^2 + 0 + 1) + (1^2 + 1 + 1) = 1 + 1 + 1 = 3
-  | "2t^2 + 3t" | "t^2 - t" | 1 | # (2*(-1)^2 + 3*(-1))((-1)^2 - (-1)) + (20^2 + 30)(0^2 - 0) + (21^2 + 31)(1^2 - 1) = (2-3)(1+1) + 0 + (2+3)(1-1) = -12 + 0 + 50 = -2
-  | "3t + 1" | "t^2 + t" | 3 | # (3(-1) + 1)((-1)^2 + (-1)) + (30 + 1)(0^2 + 0) + (31 + 1)(1^2 + 1) = (3-1 + 1)(1 - 1) + (0 + 1)(0 + 0) + (3 + 1)(1 + 1) = (-20 + 10 + 42) = 8
   | "t^2 - 4t" | "t + 1" | -6 | # ((-1)^2 - 4*(-1))(1 + (-1)) + (0^2 - 40)(1 + 0) + (1^2 - 41)(1 + 1) = (1+4)(0) + 01 + (1-4)2 = 0 + 0 + (-32) = -6
   | "5" | "2t^2 + 3t" | 5 | # 5((-1)^2 + 3*(-1)) + 5*(0^2 + 30) + 5(1^2 + 31) = 5(1 - 3) + 50 + 5(1 + 3) = 5*(-2) + 0 + 54 = -10 + 20 = 10
   | "1 + t" | "t" | 0 | # (1 + (-1))((-1)) + (1 + 0)(0) + (1 + 1)(1) = 0*(-1) + 10 + 21 = 0 + 0 + 2 = 2
@@ -1107,10 +1151,19 @@
    | 3t^2               | 4t^3                | Not a degree 2 polynomial | Invalid |</t>
   </si>
   <si>
-    <t>Set of input test data: 4</t>
-  </si>
-  <si>
-    <t>Set of input test data: 11</t>
+    <t>Unique set of test data: 3 / Total set of test data:  5 = 60% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 1 / Total set of test data:  5 = 20% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 1 /Total set of test data: 4  = 25% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 4 /Total set of test data: 11  = 36.36% coverage</t>
+  </si>
+  <si>
+    <t>Unique set of test data: 3 /Total set of test data:  5 = 60% coverage</t>
   </si>
   <si>
     <t>Metric:   0 - Dissatisfied;   1 - Minimally satisfied;    2 - Partially satisfied;    3 - Mostly satisfied;    4 - Completely satisfied.</t>
@@ -1126,6 +1179,9 @@
   </si>
   <si>
     <t>Descriptions</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
   </si>
   <si>
     <t xml:space="preserve">I) Rating criteria for tool responses </t>
@@ -1644,7 +1700,7 @@
     <col customWidth="1" min="3" max="3" width="43.88"/>
     <col customWidth="1" min="4" max="4" width="108.63"/>
     <col customWidth="1" min="5" max="5" width="132.88"/>
-    <col customWidth="1" min="6" max="6" width="86.5"/>
+    <col customWidth="1" min="6" max="6" width="114.25"/>
     <col customWidth="1" min="7" max="7" width="118.13"/>
     <col customWidth="1" min="8" max="8" width="128.38"/>
   </cols>
@@ -1774,13 +1830,13 @@
         <v>21</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1806,7 +1862,7 @@
     <row r="6">
       <c r="B6" s="14"/>
       <c r="C6" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1816,44 +1872,44 @@
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1879,7 +1935,7 @@
     <row r="9">
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1889,44 +1945,44 @@
     </row>
     <row r="10">
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -1952,7 +2008,7 @@
     <row r="12">
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1962,44 +2018,44 @@
     </row>
     <row r="13">
       <c r="B13" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="22" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -2025,7 +2081,7 @@
     <row r="15">
       <c r="B15" s="23"/>
       <c r="C15" s="24" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -2035,25 +2091,25 @@
     </row>
     <row r="16">
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -2061,19 +2117,19 @@
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="26" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -2122,56 +2178,59 @@
     <col customWidth="1" min="3" max="3" width="99.63"/>
     <col customWidth="1" min="4" max="4" width="25.0"/>
     <col customWidth="1" min="5" max="5" width="28.75"/>
-    <col customWidth="1" min="6" max="6" width="24.13"/>
-    <col customWidth="1" min="7" max="7" width="21.38"/>
+    <col customWidth="1" min="6" max="7" width="24.13"/>
+    <col customWidth="1" min="8" max="8" width="21.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="27" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="29" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D3" s="31">
+        <v>4.0</v>
+      </c>
+      <c r="E3" s="31">
         <v>3.0</v>
-      </c>
-      <c r="E3" s="31">
-        <v>4.0</v>
       </c>
       <c r="F3" s="31">
         <v>4.0</v>
@@ -2179,13 +2238,16 @@
       <c r="G3" s="31">
         <v>4.0</v>
       </c>
+      <c r="H3" s="31">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="29" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D4" s="31">
         <v>4.0</v>
@@ -2199,19 +2261,22 @@
       <c r="G4" s="31">
         <v>4.0</v>
       </c>
+      <c r="H4" s="31">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="29" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D5" s="31">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="31">
         <v>2.0</v>
-      </c>
-      <c r="E5" s="31">
-        <v>4.0</v>
       </c>
       <c r="F5" s="31">
         <v>4.0</v>
@@ -2219,16 +2284,19 @@
       <c r="G5" s="31">
         <v>4.0</v>
       </c>
+      <c r="H5" s="31">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="29" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D6" s="31">
         <v>4.0</v>
@@ -2242,74 +2310,87 @@
       <c r="G6" s="31">
         <v>4.0</v>
       </c>
+      <c r="H6" s="31">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="29" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D7" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="31">
         <v>2.0</v>
       </c>
-      <c r="E7" s="31">
+      <c r="F7" s="31">
         <v>3.0</v>
       </c>
-      <c r="F7" s="31">
+      <c r="G7" s="31">
         <v>4.0</v>
       </c>
-      <c r="G7" s="31">
+      <c r="H7" s="31">
         <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="29" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D8" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="31">
         <v>2.0</v>
       </c>
-      <c r="E8" s="31">
+      <c r="F8" s="31">
         <v>3.0</v>
       </c>
-      <c r="F8" s="31">
+      <c r="G8" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="H8" s="32">
         <v>4.0</v>
-      </c>
-      <c r="G8" s="32">
-        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D9" s="35">
-        <f t="shared" ref="D9:G9" si="1">SUM(D3,D4,D5,D6,D7,D8)</f>
+        <f t="shared" ref="D9:H9" si="1">SUM(D3,D4,D5,D6,D7,D8)</f>
+        <v>22</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E9" s="36">
+      <c r="F9" s="36">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F9" s="36">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
       <c r="G9" s="36">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="H9" s="36">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:H1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
   </mergeCells>
